--- a/document/regex.xlsx
+++ b/document/regex.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungmin43/Desktop/dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungmin43/Desktop/github/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{693E61BD-F420-AD4A-ADF7-311BD1C01AEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0028715A-E56F-D746-841D-E689A72BC429}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{E1C1BD02-71B5-8840-AA3D-BDA31580E55C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>※クリックで詳細説明に移動</t>
   </si>
@@ -3861,21 +3861,17 @@
       </rPr>
       <t>ジアドレス）</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3963,6 +3959,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3972,10 +3971,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -4295,10 +4291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE5B7C5-78BB-7445-ADE8-E741D03BF27A}">
-  <dimension ref="A3:B66"/>
+  <dimension ref="A2:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4307,6 +4303,11 @@
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>0</v>
@@ -4820,7 +4821,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/regex.xlsx
+++ b/document/regex.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungmin43/Desktop/github/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungmin43/Desktop/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0028715A-E56F-D746-841D-E689A72BC429}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{693E61BD-F420-AD4A-ADF7-311BD1C01AEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{E1C1BD02-71B5-8840-AA3D-BDA31580E55C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>※クリックで詳細説明に移動</t>
   </si>
@@ -3861,17 +3861,21 @@
       </rPr>
       <t>ジアドレス）</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3959,9 +3963,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3971,7 +3972,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -4291,10 +4295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE5B7C5-78BB-7445-ADE8-E741D03BF27A}">
-  <dimension ref="A2:B66"/>
+  <dimension ref="A3:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4303,11 +4307,6 @@
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>0</v>
@@ -4821,7 +4820,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/regex.xlsx
+++ b/document/regex.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungmin43/Desktop/dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungmin43/Desktop/github/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{693E61BD-F420-AD4A-ADF7-311BD1C01AEA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F397DD-B3D5-1D46-90C5-53C8B970632E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{E1C1BD02-71B5-8840-AA3D-BDA31580E55C}"/>
   </bookViews>
@@ -3867,15 +3867,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3963,6 +3955,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3972,10 +3967,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -4295,10 +4287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE5B7C5-78BB-7445-ADE8-E741D03BF27A}">
-  <dimension ref="A3:B66"/>
+  <dimension ref="A2:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4307,6 +4299,11 @@
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>0</v>
@@ -4820,7 +4817,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/document/regex.xlsx
+++ b/document/regex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungmin43/Desktop/github/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F397DD-B3D5-1D46-90C5-53C8B970632E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF7E6D2-4BB7-C249-814C-7C2666A0D401}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{E1C1BD02-71B5-8840-AA3D-BDA31580E55C}"/>
   </bookViews>
@@ -4290,7 +4290,7 @@
   <dimension ref="A2:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4303,6 +4303,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">

--- a/document/regex.xlsx
+++ b/document/regex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungmin43/Desktop/github/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF7E6D2-4BB7-C249-814C-7C2666A0D401}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAFAB34-82A1-9D42-9DAF-0D33CA27335D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{E1C1BD02-71B5-8840-AA3D-BDA31580E55C}"/>
   </bookViews>
@@ -4290,7 +4290,7 @@
   <dimension ref="A2:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/document/regex.xlsx
+++ b/document/regex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jungmin43/Desktop/github/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAFAB34-82A1-9D42-9DAF-0D33CA27335D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF7E6D2-4BB7-C249-814C-7C2666A0D401}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{E1C1BD02-71B5-8840-AA3D-BDA31580E55C}"/>
   </bookViews>
@@ -4290,7 +4290,7 @@
   <dimension ref="A2:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4304,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
